--- a/data/epa_xls/lmopdatasd.xlsx
+++ b/data/epa_xls/lmopdatasd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB24B4AD-2207-4C2D-B17C-45AAD71F4CA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30443E99-9651-4846-9823-50FB7775AC02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Jeanette Alvis</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6090FE1A-794B-4057-9A81-87BB9D9D9B3B}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{DFFDD6D7-C35D-487A-885D-6C25BE9457CA}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F13AE729-5E5C-4618-9A1C-B5A9C452F34F}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{536F59A3-D812-4CCA-9DC8-DA93981988E6}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{6661B952-5BB5-4CD6-8713-4F957C216282}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A7A86AB6-FD5D-453D-AC0A-E0AA649588A3}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4086EB34-7C50-44FC-BFDC-9A372C45FA60}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{4C2EDCB2-86EA-46FF-B4DC-F1E3F3720E4F}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{DD1B77D2-E31B-43A3-8284-88C24A718C3A}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{6543CBBA-DEBF-4252-8E74-53BC51DB7724}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{20C59A44-1CE3-458E-B669-810C4B9F633C}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{E8E8B223-D97D-481F-9C45-6AE6DB4994ED}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{7081B95E-03BA-4DDC-A65D-61E75489E96B}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{7B93079A-716C-433D-BCE6-7004BBD876D0}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{47AD3F18-FA80-4D9E-9785-8CEDFB54F04F}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{B0D31156-2D90-4A98-9568-004E7804E1E6}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C22CDC35-CC6A-41F6-B89A-F93B70861AB4}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{4D539D2E-143A-4F01-ADA8-9960E34293C7}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{1B9D7479-B9A5-4CF6-9195-7A148DB641F9}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{96740ACE-CF91-4E94-8373-8B5A20B528D3}">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{591D7260-1CB6-4D4C-9BBE-B5C0825EE446}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{DE5A1749-4F23-4174-879D-E9673B6B3590}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{483B919D-8A9C-4F78-ADE0-5949BDC438E0}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{9AF2DEB0-68BE-46B6-9470-1C69139153E3}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{428EADDE-D395-4F71-8807-160B22CAAFC5}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{69AABA7E-9EFA-4753-8C35-D23CE61D42BB}">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F86BD08E-0A42-4C0B-A7EB-F7E0D20DC5FF}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{CEF62508-6993-4074-8765-BB004D09F2B9}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{204BA802-93FB-490A-BE09-38A7AA7DF630}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{CBB91A10-2AA1-4D25-8F4D-52C360835955}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{263694A3-3156-4649-8218-395C560D7D5B}">
       <text>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{239418FE-F731-414A-98AD-86C8FA6753AF}">
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{D3878D0B-5E08-4903-A1FB-8BD6D336D610}">
       <text>
         <r>
           <rPr>
@@ -425,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{9FF7F6B6-0487-4290-AFF4-B55E87D508BC}">
       <text>
         <r>
           <rPr>
@@ -434,12 +434,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Capacity in megawatts for electricity-generating projects
+          <t xml:space="preserve">Actual or estimated electric generation in megawatts for electricity-generating projects
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{779B53CF-8BEF-481F-8A0E-6E7076382F8D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rated capacity in megawatts for electricity-generating projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{50DFC3EC-AE1A-4B4A-9432-BAEFEDD8BB1C}">
       <text>
         <r>
           <rPr>
@@ -453,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{62AE6AA9-77DF-43F0-A63D-B29689C1B938}">
       <text>
         <r>
           <rPr>
@@ -467,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{C4E228F2-FCDB-4CD7-A853-3DBEF477D195}">
       <text>
         <r>
           <rPr>
@@ -486,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="164">
   <si>
     <t>GHGRP ID</t>
   </si>
@@ -567,9 +581,6 @@
   </si>
   <si>
     <t>Project Type Category</t>
-  </si>
-  <si>
-    <t>MW Capacity</t>
   </si>
   <si>
     <t>LFG Flow to Project (mmscfd)</t>
@@ -708,9 +719,6 @@
     <t>Specific type of LFG energy project technology</t>
   </si>
   <si>
-    <t>Capacity in megawatts for electricity-generating projects</t>
-  </si>
-  <si>
     <t>Amount of landfill gas flowing to project or that will flow to the project when it becomes operational in million standard cubic feet per day</t>
   </si>
   <si>
@@ -1101,6 +1109,18 @@
   <si>
     <t>45605 175th Street
 Off Hwy 81, 3 mi S of town</t>
+  </si>
+  <si>
+    <t>Actual MW Generation</t>
+  </si>
+  <si>
+    <t>Rated MW Capacity</t>
+  </si>
+  <si>
+    <t>Actual or estimated electric generation in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>Rated capacity in megawatts for electricity-generating projects</t>
   </si>
 </sst>
 </file>
@@ -1524,6 +1544,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1569,19 +1602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1964,10 +1984,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>41</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -1989,36 +2009,36 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A9"/>
@@ -2033,70 +2053,70 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="A11" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="61"/>
+      <c r="A12" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="66"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="49"/>
+      <c r="C17" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
@@ -2105,20 +2125,20 @@
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="49"/>
+      <c r="A21" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -2129,16 +2149,16 @@
     <row r="24" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="49"/>
+      <c r="C24" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2160,14 +2180,14 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Summary for 
 Current LMOP Landfill and LFG Energy Project Database - South Dakota</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -2202,13 +2222,13 @@
     <col min="25" max="25" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.44140625" customWidth="1"/>
     <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" style="47" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.33203125" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2291,45 +2311,48 @@
         <v>25</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AC1" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AF1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AG1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5">
         <v>2327</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="I2" s="5">
         <v>44.343000000000004</v>
@@ -2338,10 +2361,10 @@
         <v>-96.734999999999999</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M2" s="5">
         <v>1993</v>
@@ -2350,64 +2373,65 @@
         <v>2042</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2" s="6">
-        <v>945819</v>
+        <v>997662</v>
       </c>
       <c r="Q2" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-    </row>
-    <row r="3" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+    </row>
+    <row r="3" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="10">
         <v>2330</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="H3" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I3" s="10">
         <v>45.471055999999997</v>
@@ -2416,10 +2440,10 @@
         <v>-98.621521000000001</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M3" s="10">
         <v>1975</v>
@@ -2428,62 +2452,63 @@
         <v>2070</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="11">
-        <v>1738657</v>
+        <v>1793492</v>
       </c>
       <c r="Q3" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-    </row>
-    <row r="4" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+    </row>
+    <row r="4" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>2325</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="I4" s="10">
         <v>43.704999999999998</v>
@@ -2492,10 +2517,10 @@
         <v>-97.967799999999997</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M4" s="10">
         <v>1965</v>
@@ -2504,7 +2529,7 @@
         <v>2005</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="11">
         <v>746864</v>
@@ -2513,53 +2538,54 @@
         <v>2003</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W4" s="10"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-    </row>
-    <row r="5" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10">
         <v>2326</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="I5" s="10">
         <v>44.332000000000001</v>
@@ -2568,10 +2594,10 @@
         <v>-100.0715</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M5" s="10">
         <v>2003</v>
@@ -2580,7 +2606,7 @@
         <v>2282</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5" s="11">
         <v>133933</v>
@@ -2589,55 +2615,56 @@
         <v>2008</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-    </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+    </row>
+    <row r="6" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="10">
         <v>2331</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="I6" s="10">
         <v>44.026000000000003</v>
@@ -2646,10 +2673,10 @@
         <v>-103.19799999999999</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M6" s="10">
         <v>1960</v>
@@ -2658,76 +2685,79 @@
         <v>2033</v>
       </c>
       <c r="O6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="11">
+        <v>3089581</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="11">
-        <v>2973390</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R6" s="10" t="s">
+      <c r="S6" s="10">
+        <v>0.437</v>
+      </c>
+      <c r="T6" s="10">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="V6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="10">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="V6" s="10" t="s">
+      <c r="W6" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="X6" s="12">
         <v>41640</v>
       </c>
       <c r="Y6" s="12"/>
       <c r="Z6" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
-      <c r="AD6" s="10">
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10">
         <v>0.36</v>
       </c>
-      <c r="AE6" s="65">
-        <v>0.31519999999999998</v>
-      </c>
-      <c r="AF6" s="65">
-        <v>0.311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AF6" s="50">
+        <v>3.1519999999999999E-2</v>
+      </c>
+      <c r="AG6" s="50">
+        <v>3.1099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="10">
         <v>2331</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="I7" s="10">
         <v>44.026000000000003</v>
@@ -2736,10 +2766,10 @@
         <v>-103.19799999999999</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M7" s="10">
         <v>1960</v>
@@ -2748,68 +2778,71 @@
         <v>2033</v>
       </c>
       <c r="O7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="11">
+        <v>3089581</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="11">
-        <v>2973390</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S7" s="10">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="T7" s="10"/>
+        <v>0.437</v>
+      </c>
+      <c r="T7" s="10">
+        <v>7.6999999999999999E-2</v>
+      </c>
       <c r="U7" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-    </row>
-    <row r="8" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+    </row>
+    <row r="8" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" s="10">
         <v>2294</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="I8" s="10">
         <v>43.500500000000002</v>
@@ -2818,10 +2851,10 @@
         <v>-96.93</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M8" s="10">
         <v>1979</v>
@@ -2830,7 +2863,7 @@
         <v>2079</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" s="11">
         <v>10180000</v>
@@ -2839,7 +2872,7 @@
         <v>2008</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S8" s="10">
         <v>3.02</v>
@@ -2848,58 +2881,59 @@
         <v>1.22</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="X8" s="12">
         <v>39872</v>
       </c>
       <c r="Y8" s="12"/>
       <c r="Z8" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
-      <c r="AD8" s="10">
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10">
         <v>1.8</v>
       </c>
-      <c r="AE8" s="65">
+      <c r="AF8" s="50">
         <v>0.15758</v>
       </c>
-      <c r="AF8" s="65">
-        <v>0.15559999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AG8" s="50">
+        <v>1.5559999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10">
         <v>2328</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="I9" s="10">
         <v>43.7624</v>
@@ -2908,10 +2942,10 @@
         <v>-99.212199999999996</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M9" s="10">
         <v>1996</v>
@@ -2920,7 +2954,7 @@
         <v>2040</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="11">
         <v>100000</v>
@@ -2929,55 +2963,56 @@
         <v>2003</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-    </row>
-    <row r="10" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+    </row>
+    <row r="10" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" s="10">
         <v>2329</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="I10" s="10">
         <v>42.832000000000001</v>
@@ -2986,10 +3021,10 @@
         <v>-96.975999999999999</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M10" s="10">
         <v>1976</v>
@@ -2998,64 +3033,65 @@
         <v>2076</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" s="11">
-        <v>854020</v>
+        <v>894952</v>
       </c>
       <c r="Q10" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W10" s="10"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-    </row>
-    <row r="11" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+    </row>
+    <row r="11" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="14">
         <v>2332</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="I11" s="14">
         <v>44.8474</v>
@@ -3064,10 +3100,10 @@
         <v>-97.087199999999996</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M11" s="14">
         <v>1994</v>
@@ -3076,42 +3112,43 @@
         <v>2058</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" s="15">
-        <v>894371</v>
+        <v>951247</v>
       </c>
       <c r="Q11" s="14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W11" s="14"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG11">
     <sortCondition ref="C2:C11"/>
     <sortCondition ref="U2:U11"/>
   </sortState>
@@ -3120,7 +3157,7 @@
   <pageMargins left="0" right="0" top="0.8" bottom="0.9" header="0.4" footer="0.3"/>
   <pageSetup paperSize="5" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - South Dakota&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - South Dakota&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;8&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
@@ -3132,7 +3169,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3150,10 +3187,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3161,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3169,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3177,7 +3214,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3185,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3193,7 +3230,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3201,7 +3238,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3209,7 +3246,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3217,7 +3254,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3225,7 +3262,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3233,7 +3270,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3241,7 +3278,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3249,7 +3286,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3257,7 +3294,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3265,7 +3302,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3273,7 +3310,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3281,7 +3318,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3289,7 +3326,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -3297,7 +3334,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3305,7 +3342,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3313,7 +3350,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3321,7 +3358,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3329,7 +3366,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3337,7 +3374,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3345,7 +3382,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3353,7 +3390,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3361,7 +3398,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3369,47 +3406,55 @@
         <v>25</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>68</v>
+      <c r="A30" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>69</v>
+      <c r="A31" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>71</v>
+      <c r="B34" s="46" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
